--- a/Tables/strain_info.xlsx
+++ b/Tables/strain_info.xlsx
@@ -143,826 +143,1169 @@
     <t xml:space="preserve">Kanetake Tsukasa</t>
   </si>
   <si>
+    <t xml:space="preserve">Cep4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cdc42ep4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Cellular Neurobiology Brain research Institute, Niigata University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makoto KINOSHITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homologous recombination neomycin-resistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elovl1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kihara Lab. at Hokkaido Univ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kihara Akio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masashi Isokawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hMfn2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitofusin2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPRP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takeda Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None (transgenic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazuto Nakada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaori Ishikawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transgenic via fertilized egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ido2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Jackson Lab,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129/SvJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsuyoshi Miyakawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homologous recombination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAFAH1B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lis1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratory of Genetic Disease Research, NHGRI, NIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shinji Hirotsune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh19f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcdh19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIKEN CDB Takeichi lab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masatoshi Takeichi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuichi Hayashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoko Inoue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homologous recombination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh19m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ragef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapgef2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kataoka Lab. at Kobe Univ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB3 (derivative of 129/Ola)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tohru Kataoka, M.D., Ph. D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targeted mutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA-GEF1 (flox/flox); Emx (Cre/WT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ragef2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapgef6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tohru Kataoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazuhiro Maeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scn2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departments of Biology and Neurosciences, University of California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES-R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazuhiro Yamakawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homologus recombination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ts1Cje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ts1Cje
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Pediatrice, UCSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57Bl/6J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenji Amano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIKEN-CDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT2(C57BL/6N Ã— CBA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunimasa Ohta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naofumi Ito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swapped LacZ in the coding region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www2.clst.riken.jp/arg/mutant_list_file/CDB0547K.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppEKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Neuroscience, Osaka City University Graduate School of Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129/Sv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6CrSlc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshi Mori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuki Fijita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6.129(D2)-Atf5&lt;tm1.1Yuta&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab. of Environmental Molecular Physiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129X1/SvJ (D3 cell)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6(slc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6N(Slc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuji Takahashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariko Umemura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tae Ogura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loxP in ATF5-exon3 locus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDKL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cdkl5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Developmental Medical Sciences, Graduate School of Medicine, The University of Tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT2F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teruyuki Tanaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kohsuke Okuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion of Exon 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crmp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_007765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomolecular Science Center, University of Central Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 ES cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoshio Goshima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naoya Yamashita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homologousã€€recombination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRPLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoji Tsuji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomafu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gomafu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retinal noncoding RNA 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakagawa Initiative Research Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6 Cr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shinichi Nakagawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masamitsu Sone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completely deleted by TAMERE method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grm3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6.129-Grm3tm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division of Human Molecular Genetics Research Center for Genetic Information Medical Institute of bioregulation Kyushu University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129/sv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasuyuki Fukumaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takenobu Nii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knockout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Lunenfeld Research Institute Mount Sinai Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Jim Woodgett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oksana Kaidanovich-Beilin, PhD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knock out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazunobu Sawamoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INF administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSD95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSD-95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZ gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruce4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balb/C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomoko Doi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">targeted mutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QRFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">379044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takeshi Sakurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57B6/J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitaro Okamoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homologus recombination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFP knock in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shn2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIVEP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shunsuke Ishii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C57BL/6 x CBA)F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 between C57BL/6J and BALB/cA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keizo Takao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www2.brc.riken.jp/lab/animal/detail.cgi?reg_no=01170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www2.brc.riken.jp/lab/animal/detail.cgi?reg_no=01171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouse prion protein promoter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouse Sirt1(sirtuin 1) cDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouse crystallin promoter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">humanized GFP cDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makoto Kinoshita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinoshita Makoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hikawa Rie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Molecular Neuroscience,University of Toyama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6 ES cell (RENKA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6 N Clea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisashi Mori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ran Inoue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homologous recombination    (Insertional mutant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRPM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transient receptor potential cation channel, subfamily M, member 2 (Trpm2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_138301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mori lab, Kyoto Univ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1 ES cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisashi SHIRAKAWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentaro YAMAGUCHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamamoto et al., Nat Med. 2008 Jun 8. [Epub ahead of print]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zfh5S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zfhx2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZFH-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division of Brain Biolgy, National Institute for Basic Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6J x BDF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6J Jcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetsuo Ymamamori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuriko Komine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">targetted mutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL1R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il1rapl1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mishina Lab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masayoshi Mishina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misato Yasumura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gene targetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stx1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntaxin 1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_016801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Cellular Neurobiology, Brain Research Institute, and Division of Molecular and Cellular Biology, Graduate School of Medical and Dental Sciences, Niigata University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENKA (C57BL/6 N  )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6 N   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGARASHI, MICHIHIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rieko Itoh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNOCK IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyakawa Labo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikenaka lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazuhiro Ikenaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma Jianmei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transgenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScrHKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fbxl20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setou lab,Mitsubishi Kagaku Institute of Life Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6 x B6D2F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6J (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitsutoshi Setou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikuko Yao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otsuka Pharmaceutical Co.,Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129/Sv , D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshi Ueda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keita Sasaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cre-mediated recombination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGC Department of Human Genetics, Leiden University Medical Center      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6J Jms Slc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takao Senda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takanori Onouchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michihiro Igarashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">structural maintenance of chromosomes 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_007790.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Molecular Neuroscience, Graduate school of Medicine, Osaka University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba1 hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6J, SLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toshihide Yamashita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takashi Tanaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuki Fujita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SynGAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seth Grant Lab., Sanger Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM1 ES cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6 blastocysts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seth Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNG105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caprin1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rng105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gpiap1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6/J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobuyuki Shiina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rie Ohashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion of Neo gene into rng105 exon5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cas-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cask-interacting protein - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caskin-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical Chemistry  Kansai medical university</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENKA(C5BL6N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL6/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tayo Katano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroyuki Sakagami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koichi Tanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Jackson Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1 (129)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos1tm1Plh. In NOS_1st, NumberOfGenerationsOfBackcrossing=2(once for C57BL/6J, then once for C57BL/6N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://jaxmice.jax.org/jaxmice-cgi/jaxmicedb.cgi?objtype=pricedetail&amp;stock=002633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEZ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keiichi Nakayama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129/SVJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobutaka Sakae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHPS-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPNS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takashi Matozaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129Sv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADCYAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akemichi Baba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E14tg2a(129/Ola)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 between C57BL/6J and 129SvEv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBXL20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshi Ougino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneName;FBXL20 (full length transgenic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shigetada Nakanishi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masaaki Ogawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altered sensitivities to morphine and cocaine in scaffold protein tamalin knockout mice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.pnas.org/cgi/content/full/104/37/14789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17766434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNRKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDHA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takeshi Yagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emi Fukuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNR/ProtocadherinÎ±-knockout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPT4TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masahumi Ihara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayumi Kitano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RYR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HiroshiTakeshima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6JNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6JNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makoto Nakano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFATC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFATC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFATC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerald R. Crabtree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobuyuki Yamasaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFAT dysregulation by increased dosage of DSCR1 and DYRK1A on chromosome 21.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.nature.com/nature/journal/v441/n7093/abs/nature04678.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16554754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P10TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDE10A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mineto Yokoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiromi Sano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased social interaction in mice deficient of the striatal medium spiny neuron-specific phosphodiesterase 10A2.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.blackwell-synergy.com/doi/abs/10.1111/j.1471-4159.2007.05152.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18088367</t>
+  </si>
+  <si>
     <t xml:space="preserve">APC</t>
   </si>
   <si>
-    <t xml:space="preserve">11789</t>
-  </si>
-  <si>
     <t xml:space="preserve">Makoto Mark Taketo</t>
   </si>
   <si>
-    <t xml:space="preserve">Tsuyoshi Miyakawa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yasuyuki Fukui</t>
   </si>
   <si>
-    <t xml:space="preserve">Nobuyuki Yamasaki</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ayako Kitada</t>
   </si>
   <si>
-    <t xml:space="preserve">targeted mutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGC Department of Human Genetics, Leiden University Medical Center      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6J Jms Slc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takao Senda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takanori Onouchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homologousã€€recombination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppEKI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">App</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Neuroscience, Osaka City University Graduate School of Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129/Sv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6CrSlc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroshi Mori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuki Fijita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homologous recombination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackson laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryosuke Takahashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MahitoYamada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBA/2 F2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATF5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6.129(D2)-Atf5&lt;tm1.1Yuta&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab. of Environmental Molecular Physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129X1/SvJ (D3 cell)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6(slc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6N(Slc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuji Takahashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariko Umemura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tae Ogura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loxP in ATF5-exon3 locus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keizo Takao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6JNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6JNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makoto Nakano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koichi Tanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRINP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRINP(BMP/RA induced neural specific protein)-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deleted in bladder cancer 1 (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dbc1(human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBCCR1(human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matsuoka's Laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balbc(M)xICR(F)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ichiro Matsuoka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanae Matsuoka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMKKC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camkk1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM018883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitsubishi Kagaku Institute of Life Sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL6J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taku Kaitsuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constitutive active form of Camkk1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cas-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cask-interacting protein - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caskin-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical Chemistry  Kansai medical university</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENKA(C5BL6N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL6/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tayo Katano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homologous recombination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD47KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NACD47 antigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAIAP (integrin-associated protein)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARh-related antigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Frederik Lindberg, Washington University School of Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takashi Matozaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroshi Ohnishi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDKL5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cdkl5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">382253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Developmental Medical Sciences, Graduate School of Medicine, The University of Tokyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT2F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teruyuki Tanaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kohsuke Okuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion of Exon 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cep4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cdc42ep4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Cellular Neurobiology Brain research Institute, Niigata University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makoto KINOSHITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homologous recombination neomycin-resistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miyakawa Labo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMK4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroyuki Sakagami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNRKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDHA6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takeshi Yagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emi Fukuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNR/ProtocadherinÎ±-knockout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRMP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crmp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM_007765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomolecular Science Center, University of Central Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 ES cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoshio Goshima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naoya Yamashita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takaomi C. Saido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryuichi Nakajima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calpastatin type III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WISHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCKIPSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Tominaga (Mie univ.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6Cr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomoko Fukumi-Tominaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keiko Kaneko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene targeting (distruption)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRPLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoji Tsuji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYSBIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dtnbp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Jackson Laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBA/2J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryota Hashimoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masahiro Nakao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroshi Ougino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spontaneous mutant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impaired long-term memory retention and working memory in sdy mutant mice with a deletion in Dtnbp1, a susceptibility gene for schizophrenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.molecularbrain.com/content/1/1/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elovl1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kihara Lab. at Hokkaido Univ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kihara Akio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masashi Isokawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGF-BP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DQ503577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aizawa Lab., Riken CDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tatsutoshi Nakahata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yasunari Yamanaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transgenic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEZ1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keiichi Nakayama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129/SVJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nobutaka Sakae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomafu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gomafu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retinal noncoding RNA 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakagawa Initiative Research Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6 Cr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinichi Nakagawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masamitsu Sone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">completely deleted by TAMERE method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRIA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6.Gria4(c1)/J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division of Disease Genes, Research Center for Genetic Information, Medical Institute of Bioregulation, Kyushu University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129/sv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yasuyuki Fukumaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nori-aki Sagata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grm3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6.129-Grm3tm1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division of Human Molecular Genetics Research Center for Genetic Information Medical Institute of bioregulation Kyushu University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takenobu Nii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knockout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel Lunenfeld Research Institute Mount Sinai Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Jim Woodgett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oksana Kaidanovich-Beilin, PhD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knock out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michihiro Igarashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hMfn2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitofusin2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPRP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takeda Pharmaceutical Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None (transgenic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazuto Nakada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaori Ishikawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transgenic via fertilized egg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ido2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Jackson Lab,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129/SvJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazunobu Sawamoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INF administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL1R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il1rapl1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">331461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mishina Lab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masayoshi Mishina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misato Yasumura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gene targetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K42R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMK2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoko Yamagata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knockin of Point mutated gene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atsushi Tsujimura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAFAH1B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lis1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratory of Genetic Disease Research, NHGRI, NIH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinji Hirotsune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NESDTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nes-CreERT2 line4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSE-DTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insitute for Virus Research, Kyoto University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL6j (SLC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryoichiro Kageyama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itaru Imayoshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFATC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFATC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFATC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerald R. Crabtree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFAT dysregulation by increased dosage of DSCR1 and DYRK1A on chromosome 21.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.nature.com/nature/journal/v441/n7093/abs/nature04678.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16554754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1 (129)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos1tm1Plh. In NOS_1st, NumberOfGenerationsOfBackcrossing=2(once for C57BL/6J, then once for C57BL/6N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://jaxmice.jax.org/jaxmice-cgi/jaxmicedb.cgi?objtype=pricedetail&amp;stock=002633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB032202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiosaka Lab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E14.1 from Dr. KÃ¼hn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129/Ola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6J Jcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadao Shiosaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoichiro Horii</t>
+    <t xml:space="preserve">Sept4, a Component of Presynaptic Scaffold and Lewy Bodies, Is Required for the Suppression of alpha-Synuclein Neurotoxicity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.neuron.org/content/article/abstract?uid=PIIS0896627307000396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17296554</t>
   </si>
   <si>
     <t xml:space="preserve">NR3B</t>
@@ -987,6 +1330,231 @@
     <t xml:space="preserve">17880385</t>
   </si>
   <si>
+    <t xml:space="preserve">PATMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allan Bradley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB2.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129 S6 (taconic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toru Takumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jin Nakatani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneName;ABJ14 (matDp/+, patDp/+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K42R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMK2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoko Yamagata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knockin of Point mutated gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYSBIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dtnbp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBA/2J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryota Hashimoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masahiro Nakao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spontaneous mutant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impaired long-term memory retention and working memory in sdy mutant mice with a deletion in Dtnbp1, a susceptibility gene for schizophrenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.molecularbrain.com/content/1/1/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takaomi C. Saido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryuichi Nakajima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calpastatin type III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atsushi Tsujimura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB032202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiosaka Lab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E14.1 from Dr. KÃ¼hn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129/Ola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadao Shiosaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoichiro Horii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YWHAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wynshaw-Boris Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC1 Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed with C57BL/6 and 129Sv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kozo Kaibuchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takao Hikita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD47KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACD47 antigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAIAP (integrin-associated protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARh-related antigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Frederik Lindberg, Washington University School of Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshi Ohnishi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRIA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6.Gria4(c1)/J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division of Disease Genes, Research Center for Genetic Information, Medical Institute of Bioregulation, Kyushu University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nori-aki Sagata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP-057903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidekazu Tomimoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keiko Nishio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCAS surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WISHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCKIPSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Tominaga (Mie univ.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6Cr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomoko Fukumi-Tominaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keiko Kaneko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene targeting (distruption)</t>
+  </si>
+  <si>
     <t xml:space="preserve">NRD1</t>
   </si>
   <si>
@@ -1011,236 +1579,205 @@
     <t xml:space="preserve">Mikiko Ohno</t>
   </si>
   <si>
-    <t xml:space="preserve">P10TA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDE10A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mineto Yokoi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiromi Sano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increased social interaction in mice deficient of the striatal medium spiny neuron-specific phosphodiesterase 10A2.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.blackwell-synergy.com/doi/abs/10.1111/j.1471-4159.2007.05152.x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18088367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADCYAP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akemichi Baba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E14tg2a(129/Ola)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1 between C57BL/6J and 129SvEv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parkin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP-057903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidekazu Tomimoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keiko Nishio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCAS surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATMAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allan Bradley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB2.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129 S6 (taconic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toru Takumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jin Nakatani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneName;ABJ14 (matDp/+, patDp/+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pcdh19f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcdh19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIKEN CDB Takeichi lab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masatoshi Takeichi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shuichi Hayashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoko Inoue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pcdh19m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ikenaka lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazuhiro Ikenaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ma Jianmei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSD95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSD-95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZ gene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruce4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balb/C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomoko Doi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ptma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otsuka Pharmaceutical Co.,Ltd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129/Sv , D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57B6/J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroshi Ueda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keita Sasaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cre-mediated recombination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QRFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">379044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takeshi Sakurai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitaro Okamoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homologus recombination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GFP knock in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ragef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapgef2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kataoka Lab. at Kobe Univ. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EB3 (derivative of 129/Ola)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tohru Kataoka, M.D., Ph. D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Targeted mutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RA-GEF1 (flox/flox); Emx (Cre/WT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ragef2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapgef6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tohru Kataoka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazuhiro Maeta</t>
+    <t xml:space="preserve">SNCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synuclein, alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non A4 component of amyloid precursor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyoto University, Dept. of Neurology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryosuke Takahashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hodaka Yamakado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGF-BP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DQ503577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aizawa Lab., Riken CDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatsutoshi Nakahata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasunari Yamanaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NESDTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nes-CreERT2 line4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSE-DTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insitute for Virus Research, Kyoto University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL6j (SLC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryoichiro Kageyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itaru Imayoshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRPV4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Pharmacology, Jichi medical school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57/BL6J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makoto Tominaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koji Shibasaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMKKC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camkk1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM018883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitsubishi Kagaku Institute of Life Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL6J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taku Kaitsuka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constitutive active form of Camkk1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tph2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyakawa lab, Kyoto Univ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balb/c AJc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1473G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRINP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRINP(BMP/RA induced neural specific protein)-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleted in bladder cancer 1 (human)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dbc1(human)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBCCR1(human)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matsuoka's Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balbc(M)xICR(F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ichiro Matsuoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanae Matsuoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center for Neurodegenerative Disease Research, Univ. of Pennsylvania School of Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6J/C3H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haruhisa Inoue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroki Takeuchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoshiko Karatsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackson laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MahitoYamada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBA/2 F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tdo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6 Cr Slc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNAP25</t>
   </si>
   <si>
     <t xml:space="preserve">RLN3KO</t>
@@ -1255,547 +1792,10 @@
     <t xml:space="preserve">relaxin 3</t>
   </si>
   <si>
-    <t xml:space="preserve">129Sv</t>
-  </si>
-  <si>
     <t xml:space="preserve">Masaki Tanaka</t>
   </si>
   <si>
     <t xml:space="preserve">Yoshihisa Watanabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNG105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caprin1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rng105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gpiap1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Institute of Genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6/J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nobuyuki Shiina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rie Ohashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insertion of Neo gene into rng105 exon5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RYR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HiroshiTakeshima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scn2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departments of Biology and Neurosciences, University of California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES-R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazuhiro Yamakawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homologus recombination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCRAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBXL20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitsutoshi Setou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneName;FBXL20 (full length transgenic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScrHKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fbxl20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setou lab,Mitsubishi Kagaku Institute of Life Sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6 x B6D2F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6J (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ikuko Yao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEPT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makoto Kinoshita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masahumi Ihara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayumi Kitano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sept4, a Component of Presynaptic Scaffold and Lewy Bodies, Is Required for the Suppression of alpha-Synuclein Neurotoxicity.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.neuron.org/content/article/abstract?uid=PIIS0896627307000396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17296554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEPT4TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shn2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIVEP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shunsuke Ishii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(C57BL/6 x CBA)F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1 between C57BL/6J and BALB/cA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www2.brc.riken.jp/lab/animal/detail.cgi?reg_no=01170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www2.brc.riken.jp/lab/animal/detail.cgi?reg_no=01171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHPS-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTPNS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouse prion protein promoter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouse Sirt1(sirtuin 1) cDNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouse crystallin promoter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">humanized GFP cDNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinoshita Makoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hikawa Rie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">structural maintenance of chromosomes 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM_007790.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Molecular Neuroscience, Graduate school of Medicine, Osaka University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ba1 hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6J, SLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toshihide Yamashita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takashi Tanaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuki Fujita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNAP25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synuclein, alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non A4 component of amyloid precursor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyoto University, Dept. of Neurology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hodaka Yamakado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Molecular Neuroscience,University of Toyama </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6 ES cell (RENKA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6 N Clea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hisashi Mori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ran Inoue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homologous recombination    (Insertional mutant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stx1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syntaxin 1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM_016801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Cellular Neurobiology, Brain Research Institute, and Division of Molecular and Cellular Biology, Graduate School of Medical and Dental Sciences, Niigata University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENKA (C57BL/6 N  )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6 N   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGARASHI, MICHIHIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rieko Itoh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNOCK IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SynGAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seth Grant Lab., Sanger Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM1 ES cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6 blastocysts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seth Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shigetada Nakanishi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masaaki Ogawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altered sensitivities to morphine and cocaine in scaffold protein tamalin knockout mice.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.pnas.org/cgi/content/full/104/37/14789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17766434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Center for Neurodegenerative Disease Research, Univ. of Pennsylvania School of Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6J/C3H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haruhisa Inoue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroki Takeuchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoshiko Karatsu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tdo2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6 Cr Slc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tph2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miyakawa lab, Kyoto Univ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balb/c AJc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1473G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRPM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transient receptor potential cation channel, subfamily M, member 2 (Trpm2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM_138301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mori lab, Kyoto Univ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1 ES cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hisashi SHIRAKAWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kentaro YAMAGUCHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamamoto et al., Nat Med. 2008 Jun 8. [Epub ahead of print]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRPV4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Pharmacology, Jichi medical school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57/BL6J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makoto Tominaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koji Shibasaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ts1Cje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ts1Cje
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Pediatrice, UCSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57Bl/6J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenji Amano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIKEN-CDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT2(C57BL/6N Ã— CBA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunimasa Ohta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naofumi Ito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swapped LacZ in the coding region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www2.clst.riken.jp/arg/mutant_list_file/CDB0547K.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YWHAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wynshaw-Boris Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC1 Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed with C57BL/6 and 129Sv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kozo Kaibuchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takao Hikita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zfh5S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zfhx2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZFH-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division of Brain Biolgy, National Institute for Basic Biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6J x BDF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetsuo Ymamamori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuriko Komine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">targetted mutation</t>
   </si>
 </sst>
 </file>
@@ -2292,10 +2292,10 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -2304,25 +2304,23 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
         <v>49</v>
       </c>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
       <c r="R3" t="s">
         <v>50</v>
       </c>
@@ -2348,10 +2346,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -2369,19 +2367,17 @@
         <v>40</v>
       </c>
       <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
         <v>55</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>56</v>
-      </c>
-      <c r="O4" t="s">
-        <v>57</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" t="s">
-        <v>58</v>
-      </c>
+      <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
@@ -2401,42 +2397,48 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
         <v>65</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S5"/>
       <c r="T5"/>
@@ -2457,13 +2459,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -2472,24 +2474,24 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="K6"/>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
+      <c r="L6"/>
       <c r="M6" t="s">
         <v>40</v>
       </c>
       <c r="N6" t="s">
         <v>73</v>
       </c>
-      <c r="O6" t="s">
-        <v>74</v>
-      </c>
+      <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
+      <c r="R6" t="s">
+        <v>74</v>
+      </c>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
@@ -2498,9 +2500,7 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
-      <c r="AA6" t="s">
-        <v>75</v>
-      </c>
+      <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
@@ -2511,45 +2511,35 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
+      <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="G7"/>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
         <v>79</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" t="s">
         <v>80</v>
       </c>
-      <c r="L7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" t="s">
-        <v>85</v>
-      </c>
+      <c r="O7"/>
+      <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" t="s">
-        <v>86</v>
-      </c>
+      <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
@@ -2569,10 +2559,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -2581,23 +2571,31 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s">
         <v>88</v>
       </c>
-      <c r="O8" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
+      <c r="R8" t="s">
+        <v>89</v>
+      </c>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
@@ -2617,9 +2615,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9"/>
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -2628,25 +2628,29 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9"/>
-      <c r="L9"/>
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q9"/>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -2667,48 +2671,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" t="s">
-        <v>99</v>
-      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
         <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" t="s">
-        <v>104</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
+      <c r="R10" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" t="s">
+        <v>98</v>
+      </c>
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
@@ -2727,13 +2727,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -2742,27 +2742,27 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11"/>
+        <v>94</v>
+      </c>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11" t="s">
-        <v>111</v>
-      </c>
+      <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
@@ -2781,40 +2781,40 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12"/>
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" t="s">
-        <v>114</v>
-      </c>
+      <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -2835,41 +2835,35 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
-      <c r="G13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" t="s">
-        <v>125</v>
-      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13"/>
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
@@ -2893,13 +2887,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -2908,29 +2902,31 @@
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="M14" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>139</v>
-      </c>
-      <c r="S14"/>
+        <v>124</v>
+      </c>
+      <c r="S14" t="s">
+        <v>125</v>
+      </c>
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
@@ -2949,13 +2945,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -2964,25 +2960,27 @@
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15"/>
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>134</v>
+      </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -3003,10 +3001,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -3014,22 +3016,30 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16"/>
-      <c r="L16"/>
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16"/>
+        <v>143</v>
+      </c>
+      <c r="P16" t="s">
+        <v>144</v>
+      </c>
       <c r="Q16"/>
-      <c r="R16"/>
+      <c r="R16" t="s">
+        <v>145</v>
+      </c>
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
@@ -3049,13 +3059,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -3064,23 +3074,27 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
         <v>152</v>
-      </c>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17" t="s">
-        <v>136</v>
-      </c>
-      <c r="N17" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" t="s">
-        <v>92</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="S17"/>
       <c r="T17"/>
@@ -3101,13 +3115,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -3116,31 +3130,29 @@
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="M18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>50</v>
-      </c>
-      <c r="S18" t="s">
-        <v>159</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
@@ -3159,43 +3171,29 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" t="s">
         <v>162</v>
       </c>
+      <c r="B19"/>
+      <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" t="s">
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
         <v>163</v>
       </c>
-      <c r="K19" t="s">
-        <v>164</v>
-      </c>
-      <c r="L19" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" t="s">
-        <v>136</v>
-      </c>
-      <c r="N19" t="s">
-        <v>165</v>
-      </c>
-      <c r="O19" t="s">
-        <v>166</v>
-      </c>
+      <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19" t="s">
-        <v>58</v>
-      </c>
+      <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
@@ -3215,42 +3213,46 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20"/>
+        <v>165</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="G20"/>
+      <c r="G20" t="s">
+        <v>167</v>
+      </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" t="s">
         <v>169</v>
       </c>
-      <c r="K20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" t="s">
-        <v>40</v>
-      </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20" t="s">
-        <v>171</v>
-      </c>
+      <c r="R20" t="s">
+        <v>172</v>
+      </c>
+      <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
@@ -3269,23 +3271,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" t="s">
-        <v>175</v>
-      </c>
+      <c r="G21"/>
+      <c r="H21"/>
       <c r="I21"/>
       <c r="J21" t="s">
         <v>176</v>
@@ -3294,25 +3292,23 @@
         <v>177</v>
       </c>
       <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" t="s">
         <v>178</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>179</v>
-      </c>
-      <c r="N21" t="s">
-        <v>180</v>
-      </c>
-      <c r="O21" t="s">
-        <v>181</v>
       </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>50</v>
-      </c>
-      <c r="S21" t="s">
-        <v>182</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
@@ -3331,29 +3327,37 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
         <v>183</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22"/>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" t="s">
-        <v>40</v>
-      </c>
+      <c r="M22"/>
       <c r="N22" t="s">
-        <v>184</v>
-      </c>
-      <c r="O22"/>
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>186</v>
+      </c>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22"/>
+      <c r="R22" t="s">
+        <v>187</v>
+      </c>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
@@ -3373,11 +3377,9 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" t="s">
-        <v>186</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -3385,40 +3387,26 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" t="s">
-        <v>187</v>
-      </c>
+      <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23" t="s">
-        <v>188</v>
-      </c>
+      <c r="M23"/>
       <c r="N23" t="s">
         <v>189</v>
       </c>
-      <c r="O23" t="s">
-        <v>190</v>
-      </c>
-      <c r="P23" t="s">
-        <v>191</v>
-      </c>
+      <c r="O23"/>
+      <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="s">
-        <v>93</v>
-      </c>
-      <c r="S23" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="S23"/>
       <c r="T23"/>
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
-      <c r="X23" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>194</v>
-      </c>
+      <c r="X23"/>
+      <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
       <c r="AB23"/>
@@ -3431,28 +3419,30 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
-      <c r="G24"/>
+      <c r="G24" t="s">
+        <v>194</v>
+      </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
         <v>197</v>
-      </c>
-      <c r="K24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" t="s">
-        <v>40</v>
       </c>
       <c r="M24" t="s">
         <v>40</v>
@@ -3461,11 +3451,13 @@
         <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24"/>
+      <c r="R24" t="s">
+        <v>199</v>
+      </c>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24"/>
@@ -3488,10 +3480,10 @@
         <v>200</v>
       </c>
       <c r="B25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" t="s">
         <v>201</v>
-      </c>
-      <c r="C25" t="s">
-        <v>202</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -3500,19 +3492,19 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
         <v>203</v>
       </c>
-      <c r="K25" t="s">
-        <v>101</v>
-      </c>
       <c r="L25" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="N25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
         <v>205</v>
@@ -3522,7 +3514,9 @@
       <c r="R25" t="s">
         <v>206</v>
       </c>
-      <c r="S25"/>
+      <c r="S25" t="s">
+        <v>207</v>
+      </c>
       <c r="T25"/>
       <c r="U25"/>
       <c r="V25"/>
@@ -3541,13 +3535,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -3556,31 +3550,35 @@
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="L26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="O26" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
+      <c r="T26" t="s">
+        <v>215</v>
+      </c>
+      <c r="U26" t="s">
+        <v>216</v>
+      </c>
       <c r="V26"/>
       <c r="W26"/>
       <c r="X26"/>
@@ -3597,44 +3595,48 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>215</v>
-      </c>
-      <c r="H27"/>
-      <c r="I27"/>
+        <v>220</v>
+      </c>
+      <c r="H27" t="s">
+        <v>221</v>
+      </c>
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="M27" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="N27" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="S27"/>
       <c r="T27"/>
@@ -3655,13 +3657,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -3670,27 +3672,27 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="M28" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="S28"/>
       <c r="T28"/>
@@ -3711,13 +3713,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -3726,29 +3728,29 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="M29" t="s">
         <v>40</v>
       </c>
       <c r="N29" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="O29" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29" t="s">
-        <v>233</v>
-      </c>
-      <c r="S29"/>
+      <c r="R29"/>
+      <c r="S29" t="s">
+        <v>244</v>
+      </c>
       <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
@@ -3767,36 +3769,44 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30"/>
+      <c r="G30" t="s">
+        <v>248</v>
+      </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>237</v>
-      </c>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
+        <v>249</v>
+      </c>
+      <c r="K30" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s">
+        <v>251</v>
+      </c>
+      <c r="M30" t="s">
+        <v>252</v>
+      </c>
       <c r="N30" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="S30"/>
       <c r="T30"/>
@@ -3817,29 +3827,43 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
+        <v>256</v>
+      </c>
+      <c r="B31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" t="s">
+        <v>258</v>
+      </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
+      <c r="J31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" t="s">
+        <v>260</v>
+      </c>
       <c r="M31" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N31" t="s">
-        <v>242</v>
-      </c>
-      <c r="O31"/>
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>262</v>
+      </c>
       <c r="P31"/>
       <c r="Q31"/>
-      <c r="R31"/>
+      <c r="R31" t="s">
+        <v>263</v>
+      </c>
       <c r="S31"/>
       <c r="T31"/>
       <c r="U31"/>
@@ -3859,48 +3883,42 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="C32" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32" t="s">
-        <v>246</v>
-      </c>
-      <c r="H32" t="s">
-        <v>247</v>
-      </c>
-      <c r="I32" t="s">
-        <v>248</v>
-      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="N32" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="S32"/>
       <c r="T32"/>
@@ -3921,14 +3939,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>254</v>
-      </c>
-      <c r="B33" t="s">
-        <v>255</v>
-      </c>
-      <c r="C33" t="s">
-        <v>256</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -3936,24 +3950,22 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>257</v>
-      </c>
-      <c r="K33" t="s">
-        <v>258</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="s">
         <v>40</v>
       </c>
       <c r="N33" t="s">
-        <v>46</v>
-      </c>
-      <c r="O33"/>
+        <v>73</v>
+      </c>
+      <c r="O33" t="s">
+        <v>214</v>
+      </c>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33" t="s">
-        <v>119</v>
-      </c>
+      <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
@@ -3973,9 +3985,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34"/>
+        <v>275</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -3985,17 +3999,21 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
+      <c r="L34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
       <c r="N34" t="s">
-        <v>260</v>
-      </c>
-      <c r="O34"/>
+        <v>214</v>
+      </c>
+      <c r="O34" t="s">
+        <v>214</v>
+      </c>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34" t="s">
-        <v>261</v>
-      </c>
+      <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
       <c r="U34"/>
@@ -4015,13 +4033,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -4030,27 +4048,25 @@
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>265</v>
-      </c>
-      <c r="K35" t="s">
-        <v>136</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="K35"/>
       <c r="L35" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="N35" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="S35"/>
       <c r="T35"/>
@@ -4071,13 +4087,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -4086,30 +4102,30 @@
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="K36" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="N36" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="T36"/>
       <c r="U36"/>
@@ -4129,10 +4145,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>275</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37"/>
+        <v>293</v>
+      </c>
+      <c r="B37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" t="s">
+        <v>294</v>
+      </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
@@ -4140,27 +4160,27 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="M37" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="N37" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="O37" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="S37"/>
       <c r="T37"/>
@@ -4181,35 +4201,43 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
-      </c>
-      <c r="C38"/>
+        <v>301</v>
+      </c>
+      <c r="C38" t="s">
+        <v>302</v>
+      </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38" t="s">
-        <v>280</v>
-      </c>
+      <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s">
-        <v>282</v>
-      </c>
-      <c r="L38"/>
-      <c r="M38"/>
+        <v>54</v>
+      </c>
+      <c r="L38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" t="s">
+        <v>304</v>
+      </c>
       <c r="N38" t="s">
-        <v>283</v>
-      </c>
-      <c r="O38"/>
+        <v>305</v>
+      </c>
+      <c r="O38" t="s">
+        <v>306</v>
+      </c>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38"/>
+      <c r="R38" t="s">
+        <v>161</v>
+      </c>
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
@@ -4229,36 +4257,26 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>284</v>
-      </c>
-      <c r="B39" t="s">
-        <v>285</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39" t="s">
-        <v>286</v>
-      </c>
+      <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" t="s">
-        <v>287</v>
-      </c>
+      <c r="J39"/>
       <c r="K39"/>
-      <c r="L39" t="s">
-        <v>288</v>
-      </c>
+      <c r="L39"/>
       <c r="M39" t="s">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="N39" t="s">
-        <v>289</v>
-      </c>
-      <c r="O39" t="s">
-        <v>290</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
@@ -4281,59 +4299,53 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C40" t="s">
-        <v>293</v>
-      </c>
-      <c r="D40" t="s">
-        <v>294</v>
-      </c>
-      <c r="E40" t="s">
-        <v>295</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
       <c r="F40"/>
-      <c r="G40" t="s">
-        <v>296</v>
-      </c>
-      <c r="H40" t="s">
-        <v>297</v>
-      </c>
+      <c r="G40"/>
+      <c r="H40"/>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>298</v>
-      </c>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
+        <v>312</v>
+      </c>
+      <c r="K40" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" t="s">
+        <v>313</v>
+      </c>
+      <c r="M40" t="s">
+        <v>314</v>
+      </c>
       <c r="N40" t="s">
-        <v>46</v>
+        <v>315</v>
       </c>
       <c r="O40" t="s">
-        <v>48</v>
-      </c>
-      <c r="P40"/>
+        <v>316</v>
+      </c>
+      <c r="P40" t="s">
+        <v>317</v>
+      </c>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>50</v>
+        <v>318</v>
       </c>
       <c r="S40"/>
       <c r="T40"/>
       <c r="U40"/>
       <c r="V40"/>
       <c r="W40"/>
-      <c r="X40" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>301</v>
-      </c>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
       <c r="AA40"/>
       <c r="AB40"/>
       <c r="AC40"/>
@@ -4345,14 +4357,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>302</v>
-      </c>
-      <c r="B41" t="s">
-        <v>303</v>
-      </c>
-      <c r="C41" t="s">
-        <v>304</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
@@ -4360,32 +4368,28 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41" t="s">
-        <v>187</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
-        <v>305</v>
-      </c>
-      <c r="L41"/>
+        <v>321</v>
+      </c>
+      <c r="L41" t="s">
+        <v>322</v>
+      </c>
       <c r="M41" t="s">
         <v>40</v>
       </c>
       <c r="N41" t="s">
-        <v>46</v>
-      </c>
-      <c r="O41" t="s">
-        <v>92</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41" t="s">
-        <v>50</v>
-      </c>
-      <c r="S41" t="s">
-        <v>306</v>
-      </c>
-      <c r="T41" t="s">
-        <v>307</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="S41"/>
+      <c r="T41"/>
       <c r="U41"/>
       <c r="V41"/>
       <c r="W41"/>
@@ -4403,42 +4407,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C42" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
+      <c r="G42" t="s">
+        <v>327</v>
+      </c>
+      <c r="H42" t="s">
+        <v>328</v>
+      </c>
       <c r="I42"/>
       <c r="J42" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="K42" t="s">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="N42" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="O42" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="S42"/>
       <c r="T42"/>
@@ -4459,53 +4467,49 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
-      </c>
-      <c r="C43" t="s">
-        <v>319</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
-      <c r="G43"/>
+      <c r="G43" t="s">
+        <v>336</v>
+      </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43" t="s">
-        <v>320</v>
-      </c>
-      <c r="K43"/>
-      <c r="L43"/>
+        <v>337</v>
+      </c>
+      <c r="K43" t="s">
+        <v>338</v>
+      </c>
+      <c r="L43" t="s">
+        <v>339</v>
+      </c>
       <c r="M43" t="s">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="N43" t="s">
-        <v>320</v>
-      </c>
-      <c r="O43" t="s">
-        <v>47</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43"/>
       <c r="V43"/>
       <c r="W43"/>
-      <c r="X43" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>323</v>
-      </c>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
       <c r="AA43"/>
       <c r="AB43"/>
       <c r="AC43"/>
@@ -4517,13 +4521,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="C44" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -4532,27 +4536,23 @@
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="s">
-        <v>327</v>
-      </c>
-      <c r="K44" t="s">
-        <v>101</v>
-      </c>
-      <c r="L44" t="s">
-        <v>328</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="K44"/>
+      <c r="L44"/>
       <c r="M44" t="s">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="N44" t="s">
-        <v>330</v>
+        <v>73</v>
       </c>
       <c r="O44" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="S44"/>
       <c r="T44"/>
@@ -4573,13 +4573,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -4588,38 +4588,38 @@
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45" t="s">
-        <v>335</v>
-      </c>
-      <c r="K45"/>
+        <v>349</v>
+      </c>
+      <c r="K45" t="s">
+        <v>350</v>
+      </c>
       <c r="L45"/>
       <c r="M45" t="s">
         <v>40</v>
       </c>
       <c r="N45" t="s">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="O45" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>50</v>
-      </c>
-      <c r="S45"/>
-      <c r="T45"/>
+        <v>199</v>
+      </c>
+      <c r="S45" t="s">
+        <v>351</v>
+      </c>
+      <c r="T45" t="s">
+        <v>352</v>
+      </c>
       <c r="U45"/>
       <c r="V45"/>
       <c r="W45"/>
-      <c r="X45" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>339</v>
-      </c>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
       <c r="AA45"/>
       <c r="AB45"/>
       <c r="AC45"/>
@@ -4631,13 +4631,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C46" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -4646,27 +4646,27 @@
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="K46" t="s">
-        <v>344</v>
+        <v>54</v>
       </c>
       <c r="L46" t="s">
+        <v>356</v>
+      </c>
+      <c r="M46" t="s">
         <v>40</v>
       </c>
-      <c r="M46" t="s">
-        <v>345</v>
-      </c>
       <c r="N46" t="s">
-        <v>46</v>
+        <v>355</v>
       </c>
       <c r="O46" t="s">
-        <v>92</v>
+        <v>357</v>
       </c>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="S46"/>
       <c r="T46"/>
@@ -4687,13 +4687,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C47" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -4701,26 +4701,28 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
+      <c r="J47" t="s">
+        <v>361</v>
+      </c>
+      <c r="K47" t="s">
+        <v>362</v>
+      </c>
+      <c r="L47" t="s">
+        <v>48</v>
+      </c>
       <c r="M47" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N47" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="O47" t="s">
-        <v>350</v>
+        <v>214</v>
       </c>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47" t="s">
-        <v>50</v>
-      </c>
-      <c r="S47" t="s">
-        <v>351</v>
-      </c>
+      <c r="R47"/>
+      <c r="S47"/>
       <c r="T47"/>
       <c r="U47"/>
       <c r="V47"/>
@@ -4739,10 +4741,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>352</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48"/>
+        <v>363</v>
+      </c>
+      <c r="B48" t="s">
+        <v>364</v>
+      </c>
+      <c r="C48" t="s">
+        <v>365</v>
+      </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
@@ -4750,29 +4756,29 @@
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="K48" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="L48" t="s">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="M48" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s">
-        <v>357</v>
+        <v>73</v>
       </c>
       <c r="O48" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48" t="s">
-        <v>359</v>
-      </c>
+      <c r="R48" t="s">
+        <v>199</v>
+      </c>
+      <c r="S48"/>
       <c r="T48"/>
       <c r="U48"/>
       <c r="V48"/>
@@ -4791,12 +4797,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s">
-        <v>361</v>
-      </c>
-      <c r="C49"/>
+        <v>370</v>
+      </c>
+      <c r="C49" t="s">
+        <v>286</v>
+      </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
@@ -4804,31 +4812,33 @@
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="K49" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="L49" t="s">
-        <v>135</v>
+        <v>371</v>
       </c>
       <c r="M49" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="N49" t="s">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="O49" t="s">
-        <v>364</v>
+        <v>214</v>
       </c>
       <c r="P49" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>68</v>
-      </c>
-      <c r="S49"/>
+        <v>283</v>
+      </c>
+      <c r="S49" t="s">
+        <v>373</v>
+      </c>
       <c r="T49"/>
       <c r="U49"/>
       <c r="V49"/>
@@ -4847,12 +4857,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s">
-        <v>361</v>
-      </c>
-      <c r="C50"/>
+        <v>375</v>
+      </c>
+      <c r="C50" t="s">
+        <v>376</v>
+      </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
@@ -4860,38 +4872,40 @@
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="K50" t="s">
-        <v>101</v>
-      </c>
-      <c r="L50" t="s">
-        <v>135</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="L50"/>
       <c r="M50" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="N50" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="O50" t="s">
-        <v>364</v>
-      </c>
-      <c r="P50" t="s">
-        <v>365</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="S50"/>
       <c r="T50"/>
       <c r="U50"/>
       <c r="V50"/>
       <c r="W50"/>
-      <c r="X50"/>
-      <c r="Y50"/>
-      <c r="Z50"/>
+      <c r="X50" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>381</v>
+      </c>
       <c r="AA50"/>
       <c r="AB50"/>
       <c r="AC50"/>
@@ -4903,13 +4917,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="C51" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -4918,27 +4932,31 @@
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51" t="s">
-        <v>370</v>
-      </c>
-      <c r="K51"/>
+        <v>385</v>
+      </c>
+      <c r="K51" t="s">
+        <v>84</v>
+      </c>
       <c r="L51" t="s">
-        <v>277</v>
+        <v>386</v>
       </c>
       <c r="M51" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="N51" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="O51" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>206</v>
-      </c>
-      <c r="S51"/>
+        <v>199</v>
+      </c>
+      <c r="S51" t="s">
+        <v>388</v>
+      </c>
       <c r="T51"/>
       <c r="U51"/>
       <c r="V51"/>
@@ -4957,44 +4975,42 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C52" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
-      <c r="G52" t="s">
-        <v>376</v>
-      </c>
+      <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52" t="s">
-        <v>377</v>
-      </c>
-      <c r="K52" t="s">
-        <v>378</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="K52"/>
       <c r="L52" t="s">
-        <v>379</v>
+        <v>40</v>
       </c>
       <c r="M52" t="s">
         <v>40</v>
       </c>
       <c r="N52" t="s">
-        <v>380</v>
+        <v>223</v>
       </c>
       <c r="O52" t="s">
-        <v>380</v>
-      </c>
-      <c r="P52"/>
+        <v>392</v>
+      </c>
+      <c r="P52" t="s">
+        <v>393</v>
+      </c>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="S52"/>
       <c r="T52"/>
@@ -5015,13 +5031,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B53" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C53" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -5030,27 +5046,25 @@
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="K53" t="s">
-        <v>384</v>
-      </c>
-      <c r="L53" t="s">
-        <v>385</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="L53"/>
       <c r="M53" t="s">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="N53" t="s">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="O53" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>388</v>
+        <v>199</v>
       </c>
       <c r="S53"/>
       <c r="T53"/>
@@ -5071,14 +5085,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>389</v>
-      </c>
-      <c r="B54" t="s">
-        <v>389</v>
-      </c>
-      <c r="C54" t="s">
-        <v>390</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
@@ -5086,31 +5096,27 @@
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>391</v>
-      </c>
-      <c r="K54" t="s">
-        <v>392</v>
-      </c>
-      <c r="L54" t="s">
-        <v>392</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54"/>
       <c r="M54" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="N54" t="s">
-        <v>391</v>
+        <v>73</v>
       </c>
       <c r="O54" t="s">
-        <v>393</v>
-      </c>
-      <c r="P54"/>
+        <v>401</v>
+      </c>
+      <c r="P54" t="s">
+        <v>345</v>
+      </c>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>394</v>
-      </c>
-      <c r="S54" t="s">
-        <v>395</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="S54"/>
       <c r="T54"/>
       <c r="U54"/>
       <c r="V54"/>
@@ -5129,51 +5135,59 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C55" t="s">
-        <v>398</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55"/>
+        <v>405</v>
+      </c>
+      <c r="D55" t="s">
+        <v>406</v>
+      </c>
+      <c r="E55" t="s">
+        <v>407</v>
+      </c>
       <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
+      <c r="G55" t="s">
+        <v>408</v>
+      </c>
+      <c r="H55" t="s">
+        <v>409</v>
+      </c>
       <c r="I55"/>
       <c r="J55" t="s">
-        <v>399</v>
-      </c>
-      <c r="K55" t="s">
-        <v>400</v>
-      </c>
-      <c r="L55" t="s">
-        <v>39</v>
-      </c>
-      <c r="M55" t="s">
-        <v>40</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
       <c r="N55" t="s">
-        <v>401</v>
-      </c>
-      <c r="O55"/>
+        <v>73</v>
+      </c>
+      <c r="O55" t="s">
+        <v>411</v>
+      </c>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55" t="s">
-        <v>402</v>
-      </c>
-      <c r="S55" t="s">
-        <v>403</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="S55"/>
       <c r="T55"/>
       <c r="U55"/>
       <c r="V55"/>
       <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
+      <c r="X55" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>414</v>
+      </c>
       <c r="AA55"/>
       <c r="AB55"/>
       <c r="AC55"/>
@@ -5185,13 +5199,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C56" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
@@ -5200,34 +5214,38 @@
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56" t="s">
-        <v>399</v>
-      </c>
-      <c r="K56" t="s">
-        <v>400</v>
-      </c>
-      <c r="L56" t="s">
-        <v>39</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56"/>
       <c r="M56" t="s">
         <v>40</v>
       </c>
       <c r="N56" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="O56" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56"/>
+      <c r="R56" t="s">
+        <v>199</v>
+      </c>
       <c r="S56"/>
       <c r="T56"/>
       <c r="U56"/>
       <c r="V56"/>
       <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
+      <c r="X56" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>422</v>
+      </c>
       <c r="AA56"/>
       <c r="AB56"/>
       <c r="AC56"/>
@@ -5239,42 +5257,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="C57" t="s">
-        <v>411</v>
+        <v>302</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="G57" t="s">
-        <v>412</v>
-      </c>
+      <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57" t="s">
-        <v>413</v>
-      </c>
-      <c r="L57" t="s">
-        <v>136</v>
-      </c>
+      <c r="J57" t="s">
+        <v>424</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57"/>
       <c r="M57" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="N57" t="s">
-        <v>414</v>
+        <v>73</v>
       </c>
       <c r="O57" t="s">
-        <v>415</v>
-      </c>
-      <c r="P57"/>
-      <c r="Q57"/>
+        <v>425</v>
+      </c>
+      <c r="P57" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>426</v>
+      </c>
       <c r="R57" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="S57"/>
       <c r="T57"/>
@@ -5295,55 +5313,55 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
-      <c r="G58" t="s">
-        <v>419</v>
-      </c>
-      <c r="H58" t="s">
-        <v>420</v>
-      </c>
+      <c r="G58"/>
+      <c r="H58"/>
       <c r="I58"/>
       <c r="J58" t="s">
-        <v>421</v>
-      </c>
-      <c r="K58" t="s">
-        <v>64</v>
-      </c>
-      <c r="L58" t="s">
-        <v>422</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58"/>
       <c r="M58" t="s">
-        <v>422</v>
+        <v>40</v>
       </c>
       <c r="N58" t="s">
-        <v>423</v>
+        <v>223</v>
       </c>
       <c r="O58" t="s">
-        <v>424</v>
-      </c>
-      <c r="P58"/>
+        <v>392</v>
+      </c>
+      <c r="P58" t="s">
+        <v>393</v>
+      </c>
       <c r="Q58"/>
       <c r="R58" t="s">
-        <v>425</v>
+        <v>199</v>
       </c>
       <c r="S58"/>
       <c r="T58"/>
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
+      <c r="X58" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>429</v>
+      </c>
       <c r="AA58"/>
       <c r="AB58"/>
       <c r="AC58"/>
@@ -5355,13 +5373,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C59" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
@@ -5370,34 +5388,38 @@
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59" t="s">
-        <v>429</v>
-      </c>
-      <c r="K59" t="s">
-        <v>430</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="K59"/>
       <c r="L59"/>
       <c r="M59" t="s">
         <v>40</v>
       </c>
       <c r="N59" t="s">
-        <v>46</v>
+        <v>433</v>
       </c>
       <c r="O59" t="s">
-        <v>92</v>
+        <v>425</v>
       </c>
       <c r="P59"/>
       <c r="Q59"/>
       <c r="R59" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="S59"/>
       <c r="T59"/>
       <c r="U59"/>
       <c r="V59"/>
       <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
+      <c r="X59" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>436</v>
+      </c>
       <c r="AA59"/>
       <c r="AB59"/>
       <c r="AC59"/>
@@ -5409,14 +5431,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>431</v>
-      </c>
-      <c r="B60" t="s">
-        <v>431</v>
-      </c>
-      <c r="C60" t="s">
-        <v>432</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
@@ -5424,27 +5442,29 @@
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K60" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L60" t="s">
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s">
-        <v>40</v>
+        <v>441</v>
       </c>
       <c r="N60" t="s">
-        <v>435</v>
-      </c>
-      <c r="O60"/>
+        <v>442</v>
+      </c>
+      <c r="O60" t="s">
+        <v>443</v>
+      </c>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60" t="s">
-        <v>436</v>
-      </c>
-      <c r="S60"/>
+      <c r="R60"/>
+      <c r="S60" t="s">
+        <v>444</v>
+      </c>
       <c r="T60"/>
       <c r="U60"/>
       <c r="V60"/>
@@ -5463,13 +5483,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B61" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C61" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -5478,32 +5498,30 @@
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="K61" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="L61" t="s">
-        <v>441</v>
+        <v>48</v>
       </c>
       <c r="M61" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N61" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="O61" t="s">
-        <v>88</v>
-      </c>
-      <c r="P61" t="s">
-        <v>191</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="P61"/>
       <c r="Q61"/>
       <c r="R61" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="S61" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="T61"/>
       <c r="U61"/>
@@ -5523,14 +5541,12 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s">
-        <v>444</v>
-      </c>
-      <c r="C62" t="s">
-        <v>439</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
@@ -5538,37 +5554,39 @@
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62" t="s">
-        <v>445</v>
-      </c>
-      <c r="K62" t="s">
-        <v>446</v>
-      </c>
-      <c r="L62" t="s">
-        <v>447</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="K62"/>
+      <c r="L62"/>
       <c r="M62" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="N62" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="O62" t="s">
-        <v>449</v>
-      </c>
-      <c r="P62"/>
+        <v>454</v>
+      </c>
+      <c r="P62" t="s">
+        <v>372</v>
+      </c>
       <c r="Q62"/>
       <c r="R62" t="s">
-        <v>119</v>
+        <v>402</v>
       </c>
       <c r="S62" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="T62"/>
       <c r="U62"/>
       <c r="V62"/>
       <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
+      <c r="X62" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>457</v>
+      </c>
       <c r="Z62"/>
       <c r="AA62"/>
       <c r="AB62"/>
@@ -5581,14 +5599,12 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B63" t="s">
-        <v>451</v>
-      </c>
-      <c r="C63" t="s">
-        <v>452</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
@@ -5596,40 +5612,36 @@
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63" t="s">
-        <v>453</v>
-      </c>
-      <c r="K63"/>
-      <c r="L63"/>
+        <v>460</v>
+      </c>
+      <c r="K63" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" t="s">
+        <v>39</v>
+      </c>
       <c r="M63" t="s">
         <v>40</v>
       </c>
       <c r="N63" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="O63" t="s">
-        <v>454</v>
-      </c>
-      <c r="P63" t="s">
-        <v>455</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63" t="s">
-        <v>50</v>
-      </c>
-      <c r="S63"/>
+      <c r="R63"/>
+      <c r="S63" t="s">
+        <v>462</v>
+      </c>
       <c r="T63"/>
       <c r="U63"/>
       <c r="V63"/>
       <c r="W63"/>
-      <c r="X63" t="s">
-        <v>456</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>458</v>
-      </c>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
       <c r="AA63"/>
       <c r="AB63"/>
       <c r="AC63"/>
@@ -5641,14 +5653,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>459</v>
-      </c>
-      <c r="B64" t="s">
-        <v>451</v>
-      </c>
-      <c r="C64" t="s">
-        <v>452</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
@@ -5656,27 +5664,27 @@
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64" t="s">
-        <v>453</v>
-      </c>
-      <c r="K64"/>
+        <v>464</v>
+      </c>
+      <c r="K64" t="s">
+        <v>72</v>
+      </c>
       <c r="L64" t="s">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="M64" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N64" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="O64" t="s">
-        <v>454</v>
-      </c>
-      <c r="P64" t="s">
-        <v>455</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="P64"/>
       <c r="Q64"/>
       <c r="R64" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="S64"/>
       <c r="T64"/>
@@ -5697,13 +5705,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B65" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C65" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -5712,35 +5720,31 @@
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="K65" t="s">
-        <v>101</v>
+        <v>469</v>
       </c>
       <c r="L65" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M65" t="s">
-        <v>465</v>
+        <v>252</v>
       </c>
       <c r="N65" t="s">
-        <v>46</v>
+        <v>471</v>
       </c>
       <c r="O65" t="s">
-        <v>88</v>
+        <v>472</v>
       </c>
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="S65"/>
-      <c r="T65" t="s">
-        <v>466</v>
-      </c>
-      <c r="U65" t="s">
-        <v>467</v>
-      </c>
+      <c r="T65"/>
+      <c r="U65"/>
       <c r="V65"/>
       <c r="W65"/>
       <c r="X65"/>
@@ -5757,13 +5761,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B66" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C66" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -5772,26 +5776,28 @@
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66" t="s">
-        <v>128</v>
+        <v>475</v>
       </c>
       <c r="K66" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
       <c r="L66" t="s">
-        <v>136</v>
+        <v>477</v>
       </c>
       <c r="M66" t="s">
-        <v>136</v>
+        <v>478</v>
       </c>
       <c r="N66" t="s">
-        <v>128</v>
+        <v>479</v>
       </c>
       <c r="O66" t="s">
-        <v>88</v>
+        <v>480</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66"/>
+      <c r="R66" t="s">
+        <v>199</v>
+      </c>
       <c r="S66"/>
       <c r="T66"/>
       <c r="U66"/>
@@ -5811,49 +5817,45 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C67" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="H67" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="I67" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="J67" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="K67" t="s">
-        <v>477</v>
-      </c>
-      <c r="L67" t="s">
-        <v>40</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="L67"/>
       <c r="M67" t="s">
         <v>40</v>
       </c>
       <c r="N67" t="s">
-        <v>478</v>
+        <v>361</v>
       </c>
       <c r="O67" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67" t="s">
-        <v>480</v>
-      </c>
+      <c r="R67"/>
       <c r="S67"/>
       <c r="T67"/>
       <c r="U67"/>
@@ -5873,13 +5875,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B68" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C68" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -5888,29 +5890,27 @@
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="K68" t="s">
-        <v>485</v>
+        <v>177</v>
       </c>
       <c r="L68" t="s">
-        <v>485</v>
+        <v>40</v>
       </c>
       <c r="M68" t="s">
-        <v>486</v>
+        <v>40</v>
       </c>
       <c r="N68" t="s">
-        <v>487</v>
+        <v>178</v>
       </c>
       <c r="O68" t="s">
-        <v>488</v>
-      </c>
-      <c r="P68" t="s">
-        <v>489</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="P68"/>
       <c r="Q68"/>
       <c r="R68" t="s">
-        <v>490</v>
+        <v>283</v>
       </c>
       <c r="S68"/>
       <c r="T68"/>
@@ -5931,10 +5931,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>491</v>
-      </c>
-      <c r="B69"/>
-      <c r="C69"/>
+        <v>495</v>
+      </c>
+      <c r="B69" t="s">
+        <v>496</v>
+      </c>
+      <c r="C69" t="s">
+        <v>497</v>
+      </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
@@ -5945,18 +5949,22 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="N69" t="s">
-        <v>46</v>
+        <v>498</v>
       </c>
       <c r="O69" t="s">
-        <v>88</v>
+        <v>499</v>
       </c>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
+      <c r="R69" t="s">
+        <v>199</v>
+      </c>
+      <c r="S69" t="s">
+        <v>500</v>
+      </c>
       <c r="T69"/>
       <c r="U69"/>
       <c r="V69"/>
@@ -5975,44 +5983,50 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B70" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C70" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70" t="s">
-        <v>495</v>
-      </c>
-      <c r="H70"/>
+        <v>503</v>
+      </c>
+      <c r="H70" t="s">
+        <v>504</v>
+      </c>
       <c r="I70"/>
       <c r="J70" t="s">
-        <v>496</v>
-      </c>
-      <c r="K70"/>
+        <v>505</v>
+      </c>
+      <c r="K70" t="s">
+        <v>506</v>
+      </c>
       <c r="L70" t="s">
-        <v>87</v>
+        <v>507</v>
       </c>
       <c r="M70" t="s">
-        <v>87</v>
+        <v>508</v>
       </c>
       <c r="N70" t="s">
-        <v>73</v>
+        <v>509</v>
       </c>
       <c r="O70" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70" t="s">
-        <v>50</v>
-      </c>
-      <c r="S70"/>
+        <v>199</v>
+      </c>
+      <c r="S70" t="s">
+        <v>511</v>
+      </c>
       <c r="T70"/>
       <c r="U70"/>
       <c r="V70"/>
@@ -6031,13 +6045,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="B71" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="C71" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -6046,27 +6060,27 @@
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="K71" t="s">
-        <v>502</v>
+        <v>84</v>
       </c>
       <c r="L71" t="s">
-        <v>135</v>
+        <v>516</v>
       </c>
       <c r="M71" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="N71" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="O71" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71" t="s">
-        <v>506</v>
+        <v>199</v>
       </c>
       <c r="S71"/>
       <c r="T71"/>
@@ -6087,42 +6101,42 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="B72" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C72" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72"/>
+      <c r="G72" t="s">
+        <v>523</v>
+      </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72" t="s">
-        <v>510</v>
-      </c>
-      <c r="K72" t="s">
-        <v>511</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="K72"/>
       <c r="L72" t="s">
-        <v>512</v>
+        <v>275</v>
       </c>
       <c r="M72" t="s">
-        <v>512</v>
+        <v>275</v>
       </c>
       <c r="N72" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="O72" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72" t="s">
-        <v>515</v>
+        <v>199</v>
       </c>
       <c r="S72"/>
       <c r="T72"/>
@@ -6143,10 +6157,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>516</v>
-      </c>
-      <c r="B73"/>
-      <c r="C73"/>
+        <v>527</v>
+      </c>
+      <c r="B73" t="s">
+        <v>528</v>
+      </c>
+      <c r="C73" t="s">
+        <v>529</v>
+      </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
@@ -6154,25 +6172,27 @@
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="K73" t="s">
-        <v>518</v>
+        <v>84</v>
       </c>
       <c r="L73" t="s">
-        <v>519</v>
+        <v>85</v>
       </c>
       <c r="M73" t="s">
         <v>40</v>
       </c>
       <c r="N73" t="s">
-        <v>520</v>
-      </c>
-      <c r="O73"/>
+        <v>531</v>
+      </c>
+      <c r="O73" t="s">
+        <v>532</v>
+      </c>
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73" t="s">
-        <v>490</v>
+        <v>283</v>
       </c>
       <c r="S73"/>
       <c r="T73"/>
@@ -6193,55 +6213,47 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B74" t="s">
-        <v>522</v>
-      </c>
-      <c r="C74" t="s">
-        <v>523</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
-      <c r="G74"/>
+      <c r="G74" t="s">
+        <v>535</v>
+      </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74" t="s">
-        <v>524</v>
-      </c>
-      <c r="K74" t="s">
-        <v>392</v>
-      </c>
-      <c r="L74"/>
+        <v>536</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74" t="s">
+        <v>537</v>
+      </c>
       <c r="M74" t="s">
-        <v>40</v>
+        <v>537</v>
       </c>
       <c r="N74" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="O74" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74" t="s">
-        <v>50</v>
-      </c>
+      <c r="R74"/>
       <c r="S74"/>
       <c r="T74"/>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
-      <c r="X74" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>527</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>528</v>
-      </c>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
       <c r="AA74"/>
       <c r="AB74"/>
       <c r="AC74"/>
@@ -6253,14 +6265,12 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B75" t="s">
-        <v>530</v>
-      </c>
-      <c r="C75" t="s">
-        <v>531</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
@@ -6268,24 +6278,24 @@
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="s">
-        <v>532</v>
-      </c>
-      <c r="K75"/>
+        <v>541</v>
+      </c>
+      <c r="K75" t="s">
+        <v>84</v>
+      </c>
       <c r="L75" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="M75" t="s">
-        <v>40</v>
+        <v>508</v>
       </c>
       <c r="N75" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="O75" t="s">
-        <v>535</v>
-      </c>
-      <c r="P75" t="s">
-        <v>536</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="P75"/>
       <c r="Q75"/>
       <c r="R75"/>
       <c r="S75"/>
@@ -6307,13 +6317,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B76" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C76" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -6321,24 +6331,28 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76"/>
+      <c r="J76" t="s">
+        <v>548</v>
+      </c>
       <c r="K76"/>
-      <c r="L76"/>
+      <c r="L76" t="s">
+        <v>549</v>
+      </c>
       <c r="M76" t="s">
-        <v>540</v>
+        <v>40</v>
       </c>
       <c r="N76" t="s">
-        <v>46</v>
+        <v>550</v>
       </c>
       <c r="O76" t="s">
-        <v>88</v>
+        <v>550</v>
       </c>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76" t="s">
-        <v>50</v>
-      </c>
-      <c r="S76"/>
+      <c r="R76"/>
+      <c r="S76" t="s">
+        <v>551</v>
+      </c>
       <c r="T76"/>
       <c r="U76"/>
       <c r="V76"/>
@@ -6357,13 +6371,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="B77" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C77" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -6372,26 +6386,26 @@
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="M77" t="s">
         <v>40</v>
       </c>
       <c r="N77" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="O77" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="P77"/>
       <c r="Q77"/>
       <c r="R77"/>
       <c r="S77" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="T77"/>
       <c r="U77"/>
@@ -6411,44 +6425,48 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B78" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C78" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
+      <c r="G78" t="s">
+        <v>561</v>
+      </c>
+      <c r="H78" t="s">
+        <v>562</v>
+      </c>
+      <c r="I78" t="s">
+        <v>563</v>
+      </c>
       <c r="J78" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="K78" t="s">
-        <v>551</v>
+        <v>84</v>
       </c>
       <c r="L78" t="s">
-        <v>258</v>
+        <v>565</v>
       </c>
       <c r="M78" t="s">
         <v>40</v>
       </c>
       <c r="N78" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="O78" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78"/>
-      <c r="S78" t="s">
-        <v>554</v>
-      </c>
+      <c r="S78"/>
       <c r="T78"/>
       <c r="U78"/>
       <c r="V78"/>
@@ -6467,12 +6485,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="B79" t="s">
-        <v>555</v>
-      </c>
-      <c r="C79"/>
+        <v>569</v>
+      </c>
+      <c r="C79" t="s">
+        <v>570</v>
+      </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
@@ -6480,24 +6500,24 @@
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="s">
-        <v>556</v>
-      </c>
-      <c r="K79" t="s">
-        <v>101</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="K79"/>
       <c r="L79" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="M79" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="N79" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="O79" t="s">
-        <v>559</v>
-      </c>
-      <c r="P79"/>
+        <v>574</v>
+      </c>
+      <c r="P79" t="s">
+        <v>575</v>
+      </c>
       <c r="Q79"/>
       <c r="R79"/>
       <c r="S79"/>
@@ -6519,12 +6539,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="B80" t="s">
-        <v>561</v>
-      </c>
-      <c r="C80"/>
+        <v>577</v>
+      </c>
+      <c r="C80" t="s">
+        <v>578</v>
+      </c>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
@@ -6532,22 +6554,20 @@
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>562</v>
-      </c>
-      <c r="K80" t="s">
-        <v>563</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="K80"/>
       <c r="L80" t="s">
-        <v>564</v>
+        <v>39</v>
       </c>
       <c r="M80" t="s">
-        <v>565</v>
+        <v>40</v>
       </c>
       <c r="N80" t="s">
-        <v>435</v>
+        <v>525</v>
       </c>
       <c r="O80" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="P80"/>
       <c r="Q80"/>
@@ -6560,7 +6580,9 @@
       <c r="X80"/>
       <c r="Y80"/>
       <c r="Z80"/>
-      <c r="AA80"/>
+      <c r="AA80" t="s">
+        <v>581</v>
+      </c>
       <c r="AB80"/>
       <c r="AC80"/>
       <c r="AD80"/>
@@ -6571,13 +6593,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="B81" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="C81" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
@@ -6585,32 +6607,24 @@
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81"/>
-      <c r="J81" t="s">
-        <v>570</v>
-      </c>
-      <c r="K81" t="s">
-        <v>571</v>
-      </c>
-      <c r="L81" t="s">
-        <v>39</v>
-      </c>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
       <c r="M81" t="s">
-        <v>39</v>
+        <v>585</v>
       </c>
       <c r="N81" t="s">
-        <v>572</v>
+        <v>73</v>
       </c>
       <c r="O81" t="s">
-        <v>573</v>
+        <v>214</v>
       </c>
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81" t="s">
-        <v>574</v>
-      </c>
-      <c r="S81" t="s">
-        <v>575</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="S81"/>
       <c r="T81"/>
       <c r="U81"/>
       <c r="V81"/>
@@ -6629,43 +6643,31 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>576</v>
-      </c>
-      <c r="B82" t="s">
-        <v>576</v>
-      </c>
-      <c r="C82" t="s">
-        <v>577</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82"/>
-      <c r="J82" t="s">
-        <v>578</v>
-      </c>
-      <c r="K82" t="s">
-        <v>579</v>
-      </c>
-      <c r="L82" t="s">
-        <v>580</v>
-      </c>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
       <c r="M82" t="s">
-        <v>581</v>
+        <v>48</v>
       </c>
       <c r="N82" t="s">
-        <v>582</v>
+        <v>73</v>
       </c>
       <c r="O82" t="s">
-        <v>583</v>
+        <v>214</v>
       </c>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82" t="s">
-        <v>50</v>
-      </c>
+      <c r="R82"/>
       <c r="S82"/>
       <c r="T82"/>
       <c r="U82"/>
@@ -6685,44 +6687,42 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B83" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C83" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
-      <c r="J83" t="s">
-        <v>588</v>
-      </c>
+      <c r="J83"/>
       <c r="K83" t="s">
-        <v>446</v>
+        <v>362</v>
       </c>
       <c r="L83" t="s">
-        <v>589</v>
+        <v>48</v>
       </c>
       <c r="M83" t="s">
-        <v>314</v>
+        <v>48</v>
       </c>
       <c r="N83" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O83" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P83"/>
       <c r="Q83"/>
       <c r="R83" t="s">
-        <v>592</v>
+        <v>199</v>
       </c>
       <c r="S83"/>
       <c r="T83"/>
